--- a/CP045/Default.xlsx
+++ b/CP045/Default.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fileVersion appName="SpreadsheetGear 8.2.5.102"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.2.50\bkp_server\1.Unified Functional Testing\DEV_Script\LISTA DE ESCENARIOS UAT4\MOVIL\UAT4_CRM_AltasResidenciales\CP045\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18075" windowHeight="9900" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="7440" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
@@ -15,12 +20,12 @@
     <sheet name="Buscar_Cliente" sheetId="6" r:id="rId6"/>
     <sheet name="Log_Out" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="40001"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="62">
   <si>
     <t>e_WIC_ValidaCli</t>
   </si>
@@ -109,9 +114,6 @@
     <t>e_NombrePadre</t>
   </si>
   <si>
-    <t>000002874</t>
-  </si>
-  <si>
     <t>Alta Nueva Solo Linea</t>
   </si>
   <si>
@@ -121,9 +123,6 @@
     <t>Inicio</t>
   </si>
   <si>
-    <t>UAT13</t>
-  </si>
-  <si>
     <t>e_ModeloCelular</t>
   </si>
   <si>
@@ -209,14 +208,16 @@
   </si>
   <si>
     <t>e_NumPorta</t>
+  </si>
+  <si>
+    <t>UAT4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="18">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -228,126 +229,6 @@
       <sz val="10"/>
       <name val="Mic Shell Dlg"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri Light"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -396,23 +277,23 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -423,11 +304,21 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -469,7 +360,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -502,26 +393,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -554,23 +428,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -637,18 +494,21 @@
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
@@ -710,23 +570,29 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="9.1484375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row ht="12.75" customHeight="1" customFormat="1"/>
+    <row r="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <printOptions gridLines="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -738,14 +604,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView topLeftCell="M1" workbookViewId="0">
       <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.5703125" style="2" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" style="2" customWidth="1"/>
@@ -761,157 +627,157 @@
     <col min="12" max="12" width="27" style="2" customWidth="1"/>
     <col min="13" max="13" width="24" style="2" customWidth="1"/>
     <col min="14" max="14" width="13.28515625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="13.84375" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11" style="2" customWidth="1"/>
     <col min="17" max="17" width="23.85546875" style="2" customWidth="1"/>
-    <col min="18" max="18" width="19.53515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="17.85546875" style="2" customWidth="1"/>
     <col min="20" max="20" width="14" style="2" customWidth="1"/>
     <col min="21" max="21" width="14.7109375" style="2" customWidth="1"/>
     <col min="22" max="22" width="13.42578125" style="2" customWidth="1"/>
     <col min="23" max="23" width="10.42578125" style="2" customWidth="1"/>
     <col min="24" max="24" width="19.5703125" style="2" customWidth="1"/>
-    <col min="25" max="25" width="9.1484375" style="2" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="2" customWidth="1"/>
+    <col min="25" max="26" width="9.140625" style="2" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row ht="12.75" customHeight="1" customFormat="1">
-      <c t="s">
+    <row r="1" spans="1:25" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c t="s">
+      <c r="B1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S1" t="s">
+        <v>25</v>
+      </c>
+      <c r="T1" t="s">
+        <v>10</v>
+      </c>
+      <c r="U1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V1" t="s">
+        <v>2</v>
+      </c>
+      <c r="W1" t="s">
+        <v>3</v>
+      </c>
+      <c r="X1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1" t="s">
         <v>59</v>
       </c>
-      <c t="s">
-        <v>23</v>
-      </c>
-      <c t="s">
-        <v>60</v>
-      </c>
-      <c t="s">
-        <v>21</v>
-      </c>
-      <c t="s">
+      <c r="L2" s="1" t="s">
         <v>45</v>
       </c>
-      <c t="s">
-        <v>34</v>
-      </c>
-      <c t="s">
-        <v>46</v>
-      </c>
-      <c t="s">
-        <v>12</v>
-      </c>
-      <c t="s">
-        <v>31</v>
-      </c>
-      <c t="s">
-        <v>13</v>
-      </c>
-      <c t="s">
-        <v>9</v>
-      </c>
-      <c t="s">
-        <v>49</v>
-      </c>
-      <c t="s">
-        <v>53</v>
-      </c>
-      <c t="s">
-        <v>15</v>
-      </c>
-      <c t="s">
-        <v>39</v>
-      </c>
-      <c t="s">
-        <v>24</v>
-      </c>
-      <c t="s">
-        <v>7</v>
-      </c>
-      <c t="s">
-        <v>25</v>
-      </c>
-      <c t="s">
-        <v>10</v>
-      </c>
-      <c t="s">
-        <v>40</v>
-      </c>
-      <c t="s">
-        <v>2</v>
-      </c>
-      <c t="s">
-        <v>3</v>
-      </c>
-      <c t="s">
-        <v>54</v>
-      </c>
-      <c t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row s="2" customFormat="1">
-      <c s="1" t="s">
-        <v>1</v>
-      </c>
-      <c s="1" t="s">
-        <v>1</v>
-      </c>
-      <c s="1" t="s">
-        <v>30</v>
-      </c>
-      <c s="1" t="s">
-        <v>51</v>
-      </c>
-      <c s="4" t="s">
-        <v>22</v>
-      </c>
-      <c s="4" t="s">
-        <v>22</v>
-      </c>
-      <c s="4" t="s">
-        <v>52</v>
-      </c>
-      <c s="1" t="s">
-        <v>38</v>
-      </c>
-      <c s="1" t="s">
-        <v>35</v>
-      </c>
-      <c s="1"/>
-      <c s="1" t="s">
-        <v>61</v>
-      </c>
-      <c s="1" t="s">
-        <v>47</v>
-      </c>
-      <c s="1"/>
-      <c s="1" t="s">
+      <c r="M2" s="1"/>
+      <c r="N2" s="1" t="s">
         <v>14</v>
       </c>
-      <c s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>16</v>
       </c>
-      <c s="1" t="s">
-        <v>47</v>
-      </c>
-      <c s="1" t="s">
+      <c r="P2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>26</v>
       </c>
-      <c s="5" t="s">
+      <c r="R2" s="5" t="s">
         <v>17</v>
       </c>
-      <c s="6"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1" t="s">
+      <c r="S2" s="6"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1" t="s">
         <v>4</v>
       </c>
-      <c s="3" t="s">
+      <c r="Y2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -926,43 +792,44 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="2" customWidth="1"/>
     <col min="2" max="2" width="13.140625" style="2" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" style="2" customWidth="1"/>
     <col min="4" max="4" width="12.85546875" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="9.1484375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row ht="12.75" customHeight="1" customFormat="1">
-      <c t="s">
-        <v>41</v>
-      </c>
-      <c t="s">
-        <v>62</v>
-      </c>
-      <c t="s">
+    <row r="1" spans="1:4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" t="s">
         <v>27</v>
       </c>
-      <c t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row>
-      <c s="1" t="s">
+      <c r="D1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="3"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="3"/>
     </row>
   </sheetData>
   <printOptions gridLines="1"/>
@@ -975,48 +842,49 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17" style="2" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="16" style="2" customWidth="1"/>
     <col min="4" max="4" width="13.42578125" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="9.1484375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row ht="12.75" customHeight="1" customFormat="1">
-      <c t="s">
-        <v>56</v>
-      </c>
-      <c t="s">
+    <row r="1" spans="1:4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" t="s">
         <v>28</v>
       </c>
-      <c t="s">
-        <v>42</v>
-      </c>
-      <c t="s">
+      <c r="C1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row>
-      <c s="1" t="s">
-        <v>50</v>
-      </c>
-      <c s="1" t="s">
-        <v>36</v>
-      </c>
-      <c s="1" t="s">
-        <v>57</v>
-      </c>
-      <c s="3" t="s">
-        <v>43</v>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1030,65 +898,66 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.1484375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.21484375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.41796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.42578125" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9.1484375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row ht="12.75" customHeight="1" customFormat="1">
-      <c t="s">
-        <v>32</v>
-      </c>
-      <c t="s">
+    <row r="1" spans="1:7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
         <v>11</v>
       </c>
-      <c t="s">
+      <c r="C1" t="s">
         <v>19</v>
       </c>
-      <c t="s">
-        <v>48</v>
-      </c>
-      <c t="s">
+      <c r="D1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c t="s">
-        <v>37</v>
-      </c>
-      <c t="s">
+      <c r="F1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row>
-      <c s="1" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c s="1" t="s">
-        <v>33</v>
-      </c>
-      <c s="1" t="s">
-        <v>44</v>
-      </c>
-      <c s="1" t="s">
-        <v>44</v>
-      </c>
-      <c s="1" t="s">
+      <c r="B2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-      <c s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1103,40 +972,41 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.6953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.140625" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="9.1484375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row ht="12.75" customHeight="1" customFormat="1">
-      <c t="s">
+    <row r="1" spans="1:3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>20</v>
       </c>
-      <c t="s">
+      <c r="B1" t="s">
         <v>6</v>
       </c>
-      <c t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row>
-      <c s="1" t="s">
-        <v>50</v>
-      </c>
-      <c s="5" t="s">
-        <v>29</v>
-      </c>
-      <c s="3"/>
+      <c r="C1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="5">
+        <v>2020202010</v>
+      </c>
+      <c r="C2" s="3"/>
     </row>
   </sheetData>
   <printOptions gridLines="1"/>
@@ -1149,25 +1019,26 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="9.1484375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row ht="12.75" customHeight="1" customFormat="1">
-      <c t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row>
-      <c s="3" t="s">
+    <row r="1" spans="1:1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
